--- a/src/test/java/gfl/testData/Customer.xlsx
+++ b/src/test/java/gfl/testData/Customer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>TC0042</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>UCN 10039</t>
+  </si>
+  <si>
+    <t>lznUP_0104634</t>
+  </si>
+  <si>
+    <t>DGApgbsJDv</t>
+  </si>
+  <si>
+    <t>UCN 10054</t>
   </si>
 </sst>
 </file>
@@ -729,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
